--- a/4_final_report/components/emitter_list.xlsx
+++ b/4_final_report/components/emitter_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxime/Documents/bac3/info-2055-em-project/git/4_final_report/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6271E1BF-EC47-0A4F-B524-58673C701C16}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2117C5-9EC0-AA47-9602-79A8CFAC58A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20440" xr2:uid="{01417B18-2681-9D41-A75F-27C69C86DAA7}"/>
   </bookViews>
@@ -174,7 +174,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -182,13 +182,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -508,7 +527,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -520,201 +539,214 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>34</v>
       </c>
     </row>
@@ -723,5 +755,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/4_final_report/components/emitter_list.xlsx
+++ b/4_final_report/components/emitter_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxime/Documents/bac3/info-2055-em-project/git/4_final_report/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2117C5-9EC0-AA47-9602-79A8CFAC58A2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1987D32-C05A-4E4E-B29F-A6B3EFB1C09E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20440" xr2:uid="{01417B18-2681-9D41-A75F-27C69C86DAA7}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t>Prevent destroying the cirucits if the batteries are put the wrong way</t>
   </si>
   <si>
-    <t>470 Ohm</t>
-  </si>
-  <si>
     <t>Resistors for IR emitters</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>Used with the timers to get a frequency of 38kHz</t>
+  </si>
+  <si>
+    <t>68 Ohm</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -579,7 +579,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>16</v>
@@ -602,77 +602,77 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -684,15 +684,15 @@
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2">
@@ -702,7 +702,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -717,22 +717,22 @@
         <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2">
         <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -747,7 +747,7 @@
         <v>12</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.2">
